--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H2">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J2">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.887081668384218</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N2">
-        <v>0.887081668384218</v>
+        <v>0.022432</v>
       </c>
       <c r="O2">
-        <v>0.7724892471070313</v>
+        <v>0.005795036243518624</v>
       </c>
       <c r="P2">
-        <v>0.7724892471070313</v>
+        <v>0.005795036243518625</v>
       </c>
       <c r="Q2">
-        <v>4.646103624936396</v>
+        <v>0.04144014402133333</v>
       </c>
       <c r="R2">
-        <v>4.646103624936396</v>
+        <v>0.372961296192</v>
       </c>
       <c r="S2">
-        <v>0.1925111070199602</v>
+        <v>0.001368687305568809</v>
       </c>
       <c r="T2">
-        <v>0.1925111070199602</v>
+        <v>0.001368687305568809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.23751509080227</v>
+        <v>5.542102</v>
       </c>
       <c r="H3">
-        <v>5.23751509080227</v>
+        <v>16.626306</v>
       </c>
       <c r="I3">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J3">
-        <v>0.2492087854179374</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.261260100392933</v>
+        <v>0.8926500000000001</v>
       </c>
       <c r="N3">
-        <v>0.261260100392933</v>
+        <v>2.67795</v>
       </c>
       <c r="O3">
-        <v>0.2275107528929687</v>
+        <v>0.6918160354997638</v>
       </c>
       <c r="P3">
-        <v>0.2275107528929687</v>
+        <v>0.6918160354997638</v>
       </c>
       <c r="Q3">
-        <v>1.368353718432503</v>
+        <v>4.9471573503</v>
       </c>
       <c r="R3">
-        <v>1.368353718432503</v>
+        <v>44.5244161527</v>
       </c>
       <c r="S3">
-        <v>0.05669767839797721</v>
+        <v>0.1633949790454704</v>
       </c>
       <c r="T3">
-        <v>0.05669767839797721</v>
+        <v>0.1633949790454703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.46672302469283</v>
+        <v>5.542102</v>
       </c>
       <c r="H4">
-        <v>3.46672302469283</v>
+        <v>16.626306</v>
       </c>
       <c r="I4">
-        <v>0.164951855867925</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J4">
-        <v>0.164951855867925</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.887081668384218</v>
+        <v>0.3214343333333333</v>
       </c>
       <c r="N4">
-        <v>0.887081668384218</v>
+        <v>0.9643029999999999</v>
       </c>
       <c r="O4">
-        <v>0.7724892471070313</v>
+        <v>0.2491160322188722</v>
       </c>
       <c r="P4">
-        <v>0.7724892471070313</v>
+        <v>0.2491160322188722</v>
       </c>
       <c r="Q4">
-        <v>3.075266444570498</v>
+        <v>1.781421861635333</v>
       </c>
       <c r="R4">
-        <v>3.075266444570498</v>
+        <v>16.032796754718</v>
       </c>
       <c r="S4">
-        <v>0.1274235349483209</v>
+        <v>0.05883689705875174</v>
       </c>
       <c r="T4">
-        <v>0.1274235349483209</v>
+        <v>0.05883689705875173</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,60 +714,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.46672302469283</v>
+        <v>5.542102</v>
       </c>
       <c r="H5">
-        <v>3.46672302469283</v>
+        <v>16.626306</v>
       </c>
       <c r="I5">
-        <v>0.164951855867925</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="J5">
-        <v>0.164951855867925</v>
+        <v>0.2361826998234217</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.261260100392933</v>
+        <v>0.06873800000000001</v>
       </c>
       <c r="N5">
-        <v>0.261260100392933</v>
+        <v>0.206214</v>
       </c>
       <c r="O5">
-        <v>0.2275107528929687</v>
+        <v>0.05327289603784548</v>
       </c>
       <c r="P5">
-        <v>0.2275107528929687</v>
+        <v>0.05327289603784548</v>
       </c>
       <c r="Q5">
-        <v>0.9057164054657412</v>
+        <v>0.380953007276</v>
       </c>
       <c r="R5">
-        <v>0.9057164054657412</v>
+        <v>3.428577065484</v>
       </c>
       <c r="S5">
-        <v>0.03752832091960408</v>
+        <v>0.01258213641363081</v>
       </c>
       <c r="T5">
-        <v>0.03752832091960408</v>
+        <v>0.01258213641363081</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.826771711127</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H6">
-        <v>11.826771711127</v>
+        <v>10.576915</v>
       </c>
       <c r="I6">
-        <v>0.5627354503896455</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J6">
-        <v>0.5627354503896455</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.887081668384218</v>
+        <v>0.007477333333333333</v>
       </c>
       <c r="N6">
-        <v>0.887081668384218</v>
+        <v>0.022432</v>
       </c>
       <c r="O6">
-        <v>0.7724892471070313</v>
+        <v>0.005795036243518624</v>
       </c>
       <c r="P6">
-        <v>0.7724892471070313</v>
+        <v>0.005795036243518625</v>
       </c>
       <c r="Q6">
-        <v>10.49131238110581</v>
+        <v>0.02636237303111111</v>
       </c>
       <c r="R6">
-        <v>10.49131238110581</v>
+        <v>0.23726135728</v>
       </c>
       <c r="S6">
-        <v>0.4347070843919333</v>
+        <v>0.0008706978743552727</v>
       </c>
       <c r="T6">
-        <v>0.4347070843919333</v>
+        <v>0.0008706978743552726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.826771711127</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H7">
-        <v>11.826771711127</v>
+        <v>10.576915</v>
       </c>
       <c r="I7">
-        <v>0.5627354503896455</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J7">
-        <v>0.5627354503896455</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.261260100392933</v>
+        <v>0.8926500000000001</v>
       </c>
       <c r="N7">
-        <v>0.261260100392933</v>
+        <v>2.67795</v>
       </c>
       <c r="O7">
-        <v>0.2275107528929687</v>
+        <v>0.6918160354997638</v>
       </c>
       <c r="P7">
-        <v>0.2275107528929687</v>
+        <v>0.6918160354997638</v>
       </c>
       <c r="Q7">
-        <v>3.08986356457334</v>
+        <v>3.14716105825</v>
       </c>
       <c r="R7">
-        <v>3.08986356457334</v>
+        <v>28.32444952425</v>
       </c>
       <c r="S7">
-        <v>0.1280283659977121</v>
+        <v>0.1039446046999689</v>
       </c>
       <c r="T7">
-        <v>0.1280283659977121</v>
+        <v>0.1039446046999689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.485565018516919</v>
+        <v>3.525638333333333</v>
       </c>
       <c r="H8">
-        <v>0.485565018516919</v>
+        <v>10.576915</v>
       </c>
       <c r="I8">
-        <v>0.02310390832449212</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="J8">
-        <v>0.02310390832449212</v>
+        <v>0.1502489091986426</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.887081668384218</v>
+        <v>0.3214343333333333</v>
       </c>
       <c r="N8">
-        <v>0.887081668384218</v>
+        <v>0.9643029999999999</v>
       </c>
       <c r="O8">
-        <v>0.7724892471070313</v>
+        <v>0.2491160322188722</v>
       </c>
       <c r="P8">
-        <v>0.7724892471070313</v>
+        <v>0.2491160322188722</v>
       </c>
       <c r="Q8">
-        <v>0.4307358267350022</v>
+        <v>1.133261207249444</v>
       </c>
       <c r="R8">
-        <v>0.4307358267350022</v>
+        <v>10.199350865245</v>
       </c>
       <c r="S8">
-        <v>0.01784752074681679</v>
+        <v>0.03742941210477944</v>
       </c>
       <c r="T8">
-        <v>0.01784752074681679</v>
+        <v>0.03742941210477944</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,551 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.525638333333333</v>
+      </c>
+      <c r="H9">
+        <v>10.576915</v>
+      </c>
+      <c r="I9">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="J9">
+        <v>0.1502489091986426</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06873800000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.206214</v>
+      </c>
+      <c r="O9">
+        <v>0.05327289603784548</v>
+      </c>
+      <c r="P9">
+        <v>0.05327289603784548</v>
+      </c>
+      <c r="Q9">
+        <v>0.2423453277566667</v>
+      </c>
+      <c r="R9">
+        <v>2.18110794981</v>
+      </c>
+      <c r="S9">
+        <v>0.008004194519538972</v>
+      </c>
+      <c r="T9">
+        <v>0.00800419451953897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.485565018516919</v>
-      </c>
-      <c r="H9">
-        <v>0.485565018516919</v>
-      </c>
-      <c r="I9">
-        <v>0.02310390832449212</v>
-      </c>
-      <c r="J9">
-        <v>0.02310390832449212</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.261260100392933</v>
-      </c>
-      <c r="N9">
-        <v>0.261260100392933</v>
-      </c>
-      <c r="O9">
-        <v>0.2275107528929687</v>
-      </c>
-      <c r="P9">
-        <v>0.2275107528929687</v>
-      </c>
-      <c r="Q9">
-        <v>0.1268587654850266</v>
-      </c>
-      <c r="R9">
-        <v>0.1268587654850266</v>
-      </c>
-      <c r="S9">
-        <v>0.005256387577675328</v>
-      </c>
-      <c r="T9">
-        <v>0.005256387577675328</v>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H10">
+        <v>39.22841</v>
+      </c>
+      <c r="I10">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J10">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007477333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.022432</v>
+      </c>
+      <c r="O10">
+        <v>0.005795036243518624</v>
+      </c>
+      <c r="P10">
+        <v>0.005795036243518625</v>
+      </c>
+      <c r="Q10">
+        <v>0.09777463256888888</v>
+      </c>
+      <c r="R10">
+        <v>0.8799716931199999</v>
+      </c>
+      <c r="S10">
+        <v>0.003229305823232683</v>
+      </c>
+      <c r="T10">
+        <v>0.003229305823232684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H11">
+        <v>39.22841</v>
+      </c>
+      <c r="I11">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J11">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8926500000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.67795</v>
+      </c>
+      <c r="O11">
+        <v>0.6918160354997638</v>
+      </c>
+      <c r="P11">
+        <v>0.6918160354997638</v>
+      </c>
+      <c r="Q11">
+        <v>11.6724133955</v>
+      </c>
+      <c r="R11">
+        <v>105.0517205595</v>
+      </c>
+      <c r="S11">
+        <v>0.3855170974200234</v>
+      </c>
+      <c r="T11">
+        <v>0.3855170974200234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H12">
+        <v>39.22841</v>
+      </c>
+      <c r="I12">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J12">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3214343333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.9643029999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.2491160322188722</v>
+      </c>
+      <c r="P12">
+        <v>0.2491160322188722</v>
+      </c>
+      <c r="Q12">
+        <v>4.203119272025555</v>
+      </c>
+      <c r="R12">
+        <v>37.82807344822999</v>
+      </c>
+      <c r="S12">
+        <v>0.1388208493785996</v>
+      </c>
+      <c r="T12">
+        <v>0.1388208493785996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>13.07613666666666</v>
+      </c>
+      <c r="H13">
+        <v>39.22841</v>
+      </c>
+      <c r="I13">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="J13">
+        <v>0.5572537750466107</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.06873800000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.206214</v>
+      </c>
+      <c r="O13">
+        <v>0.05327289603784548</v>
+      </c>
+      <c r="P13">
+        <v>0.05327289603784548</v>
+      </c>
+      <c r="Q13">
+        <v>0.8988274821933333</v>
+      </c>
+      <c r="R13">
+        <v>8.08944733974</v>
+      </c>
+      <c r="S13">
+        <v>0.02968652242475502</v>
+      </c>
+      <c r="T13">
+        <v>0.02968652242475502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.964321</v>
+      </c>
+      <c r="I14">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J14">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.007477333333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.022432</v>
+      </c>
+      <c r="O14">
+        <v>0.005795036243518624</v>
+      </c>
+      <c r="P14">
+        <v>0.005795036243518625</v>
+      </c>
+      <c r="Q14">
+        <v>0.009880849852444442</v>
+      </c>
+      <c r="R14">
+        <v>0.088927648672</v>
+      </c>
+      <c r="S14">
+        <v>0.0003263452403618606</v>
+      </c>
+      <c r="T14">
+        <v>0.0003263452403618606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.964321</v>
+      </c>
+      <c r="I15">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J15">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8926500000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.67795</v>
+      </c>
+      <c r="O15">
+        <v>0.6918160354997638</v>
+      </c>
+      <c r="P15">
+        <v>0.6918160354997638</v>
+      </c>
+      <c r="Q15">
+        <v>1.17958371355</v>
+      </c>
+      <c r="R15">
+        <v>10.61625342195</v>
+      </c>
+      <c r="S15">
+        <v>0.0389593543343012</v>
+      </c>
+      <c r="T15">
+        <v>0.0389593543343012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.964321</v>
+      </c>
+      <c r="I16">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J16">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3214343333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.9643029999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.2491160322188722</v>
+      </c>
+      <c r="P16">
+        <v>0.2491160322188722</v>
+      </c>
+      <c r="Q16">
+        <v>0.4247562925847777</v>
+      </c>
+      <c r="R16">
+        <v>3.822806633262999</v>
+      </c>
+      <c r="S16">
+        <v>0.01402887367674141</v>
+      </c>
+      <c r="T16">
+        <v>0.0140288736767414</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.321440333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.964321</v>
+      </c>
+      <c r="I17">
+        <v>0.05631461593132515</v>
+      </c>
+      <c r="J17">
+        <v>0.05631461593132514</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.06873800000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.206214</v>
+      </c>
+      <c r="O17">
+        <v>0.05327289603784548</v>
+      </c>
+      <c r="P17">
+        <v>0.05327289603784548</v>
+      </c>
+      <c r="Q17">
+        <v>0.09083316563266666</v>
+      </c>
+      <c r="R17">
+        <v>0.8174984906939999</v>
+      </c>
+      <c r="S17">
+        <v>0.003000042679920681</v>
+      </c>
+      <c r="T17">
+        <v>0.003000042679920681</v>
       </c>
     </row>
   </sheetData>
